--- a/tabela_conversao_20240515_194636.xlsx
+++ b/tabela_conversao_20240515_194636.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/pyqt6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="14_{23493EE5-1ABA-46A5-971D-18C703B6CB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C6BF6C-34C0-4084-9A86-B86A50397130}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{68C82B62-8FA9-49D4-9168-12C1C1369DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A10DE20-D221-4A1D-A6D8-8A852FF4BECD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
   <si>
     <t>item_num</t>
   </si>
@@ -232,102 +232,6 @@
     <t>62</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>265193</t>
   </si>
   <si>
@@ -511,102 +415,6 @@
     <t>253944</t>
   </si>
   <si>
-    <t>381089</t>
-  </si>
-  <si>
-    <t>401652</t>
-  </si>
-  <si>
-    <t>261188</t>
-  </si>
-  <si>
-    <t>272740</t>
-  </si>
-  <si>
-    <t>468603</t>
-  </si>
-  <si>
-    <t>420012</t>
-  </si>
-  <si>
-    <t>226351</t>
-  </si>
-  <si>
-    <t>226353</t>
-  </si>
-  <si>
-    <t>226354</t>
-  </si>
-  <si>
-    <t>226355</t>
-  </si>
-  <si>
-    <t>226352</t>
-  </si>
-  <si>
-    <t>257126</t>
-  </si>
-  <si>
-    <t>257125</t>
-  </si>
-  <si>
-    <t>237002</t>
-  </si>
-  <si>
-    <t>255681</t>
-  </si>
-  <si>
-    <t>274654</t>
-  </si>
-  <si>
-    <t>264236</t>
-  </si>
-  <si>
-    <t>483893</t>
-  </si>
-  <si>
-    <t>613232</t>
-  </si>
-  <si>
-    <t>601171</t>
-  </si>
-  <si>
-    <t>474992</t>
-  </si>
-  <si>
-    <t>238192</t>
-  </si>
-  <si>
-    <t>446525</t>
-  </si>
-  <si>
-    <t>471262</t>
-  </si>
-  <si>
-    <t>240668</t>
-  </si>
-  <si>
-    <t>328437</t>
-  </si>
-  <si>
-    <t>320018</t>
-  </si>
-  <si>
-    <t>301890</t>
-  </si>
-  <si>
-    <t>290123</t>
-  </si>
-  <si>
-    <t>455724</t>
-  </si>
-  <si>
-    <t>455723</t>
-  </si>
-  <si>
-    <t>380534</t>
-  </si>
-  <si>
     <t>Tubo Pvc Soldável Aplicação: Sanitária , Cor: Branca , Diâmetro Nominal: 50 MM, Comprimento: 6 M, Material: Pvc Rígido</t>
   </si>
   <si>
@@ -736,51 +544,6 @@
     <t>Torneira Material Corpo: Latão , Tipo: Pia , Diâmetro: 1/2 POL, Acabamento Superficial: Cromado , Caracteristicas Adicionais: Com Bica Móvel Curta E Bico Arejador</t>
   </si>
   <si>
-    <t>Braço Chuveiro Material: Pvc , Comprimento: 30 CM, Bitola: 1/2" PO</t>
-  </si>
-  <si>
-    <t>Registro Pressão Material: Pvc , Diâmetro: 20 MM, Tipo: Soldavel , Características Adicionais: Com Canopla Polida , Aplicação: Instalação Hidráulica</t>
-  </si>
-  <si>
-    <t>Registro Pressão Material: Pvc , Diâmetro: 25 MM, Tipo: Soldavel , Aplicação: Instalação Hidráulica</t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 3/4 POL, Material: Metal , Acabamento Superficial: Cromado</t>
-  </si>
-  <si>
-    <t>Conjunto Obturador Caixa Descarga Componentes: Borracha, Flutuador, Guia, Haste, Reguladores E , Outros Componentes: Peneira Embutida, Botão De Acionamento Duplo, Conj , Aplicação: Caixa De Descarga Acoplada De 6 Litros, Padrao Uni</t>
-  </si>
-  <si>
-    <t>Reparo Válvula Hidráulica Material: Latão E Elastomero , Bitola: 1 1/2 X 1 1/4 POL, Aplicação: Válvula Hydra, Modelo 4336.021 , Componentes: Haste Acionadora</t>
-  </si>
-  <si>
-    <t>Parafuso Com Bucha E Porca Material: Latão , Referência Bucha: Nº 10 , Tipo Porca: De Mama , Aplicação: Fixação De Louças Sanitárias</t>
-  </si>
-  <si>
-    <t>Anel Vedação Material: Cera Parafina , Diâmetro Interno: 65 MM, Espessura Seção Transversal: 15 MM, Características Adicionais: Vaso Sanitário</t>
-  </si>
-  <si>
-    <t>Acessórios Banheiro Material: Latão Cromado , Componentes: Kit Parafusos Para Fixação E Anel Vedação , Tipo: Suporte Para Fixação De Bacia Sanitária</t>
-  </si>
-  <si>
-    <t>Bóia Caixa D'Água Material: Plástico , Tipo: Pressão , Bitola: 3/4 POL, Material Balão: Plástico , Aplicação: Caixa De Água, Cisterna</t>
-  </si>
-  <si>
-    <t>Bóia Caixa D'Água Material: Pvc - Cloreto De Polivinila , Bitola: 1/2 POL, Aplicação: Caixa De Descarga Externa , Características Adicionais: Fixação Roscável, Bóia Vedação</t>
-  </si>
-  <si>
-    <t>Bóia Caixa D'Água Material: Pvc - Cloreto De Polivinila , Tipo: Pressão , Altura: 10 CM, Bitola: 3/4 POL, Material Balão: Plástico , Aplicação: Caixa De Descarga , Características Adicionais: Haste E Balão Em Latão, Vaso Acoplado</t>
-  </si>
-  <si>
-    <t>Mangueira Jardim Material: Polietileno , Diâmetro: 1 POL, Espessura: 0,20 MM, Comprimento: 100 M, Características Adicionais: Microperfurada Laser/Alcance 2,5m/Altura Jato 2,0m</t>
-  </si>
-  <si>
-    <t>Mangueira Jardim Material: Pvc E Poliéster Trançado , Diâmetro: 1/2 POL, Pressão Máxima: 12 BAR., Comprimento: 50 M, Cor: Cristal , Características Adicionais: Três Camadas Intermediaria De Pvc Transparente</t>
-  </si>
-  <si>
-    <t>Tapa-Furo Material: Pvc - Cloreto De Polivinila , Diâmetro: 13 MM, Cor: Branca</t>
-  </si>
-  <si>
     <t>Tubo 6 M</t>
   </si>
   <si>
@@ -1024,99 +787,6 @@
     <t>TORNEIRA DE MESA/BANCADA 1/2 "</t>
   </si>
   <si>
-    <t>TORNEIRA PARA COZINHA PAREDE 1/2 "</t>
-  </si>
-  <si>
-    <t>TORNEIRA PARA COZINHA PAREDE 3/4 "</t>
-  </si>
-  <si>
-    <t>BRAÇO / CANO 30 DE ALUMÍNIO X 1/2 "</t>
-  </si>
-  <si>
-    <t>BRAÇO / CANO DE PVC 1/2 "</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ESFERA DN 20 MM</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ESFERA DN 25 MM</t>
-  </si>
-  <si>
-    <t>REGISTRO GAVETA 1/2 "</t>
-  </si>
-  <si>
-    <t>REGISTRO GAVETA 1 "</t>
-  </si>
-  <si>
-    <t>REGISTRO GAVETA 1  1/2 "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO GAVETA 1  1/4 "  </t>
-  </si>
-  <si>
-    <t>REGISTRO GAVETA CROMADO 3/4”</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE RETENÇÃO SOLDÁVEL DE 1”</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE RETENÇÃO SOLDÁVEL DE 25 MM</t>
-  </si>
-  <si>
-    <t>VÁLVULA DE RETENÇÃO ESGOTO 100 MM</t>
-  </si>
-  <si>
-    <t>TANQUE LOUCA BRANCA 30 L</t>
-  </si>
-  <si>
-    <t>VASO SANITÁRIA CONVENCIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO SANITÁRIA COM CAIXA ACOPLADA </t>
-  </si>
-  <si>
-    <t>REPARO UNIVERSAL PARA CAIXA ACOPLADA ACIONAMENTO SUPERIOR COM MECANISMO DUALFLUX</t>
-  </si>
-  <si>
-    <t>BOTÃO ACIONAMENTO SUPERIOR ABS P/ CAIXA ACOPLADA</t>
-  </si>
-  <si>
-    <t>KIT DE REPARO PARA VÁLVULA DE DESCARGA HYDRA 2550 DE 1 1/2'' E 1 ¼''</t>
-  </si>
-  <si>
-    <t>CONJUNTO PARA FIXAÇÃO DE LOUÇA SANITÁRIA 10 MM</t>
-  </si>
-  <si>
-    <t>ANEL DE VEDAÇÃO P/ VASO SANITÁRIO, PVC FLEXÍVEL</t>
-  </si>
-  <si>
-    <t>ACESSÓRIOS DE FIXAÇÃO DE VASO SANITÁRIO</t>
-  </si>
-  <si>
-    <t>DUCHA HIGIÊNICA 1/2 "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACABAMENTO DE REGISTRO 3/4”  DE METAL </t>
-  </si>
-  <si>
-    <t>BÓIA CAIXA D’ ÁGUA  3/4”  DE PLÁSTICO</t>
-  </si>
-  <si>
-    <t>BÓIA CAIXA D’ ÁGUA  1/2 "  DE PLÁSTICO</t>
-  </si>
-  <si>
-    <t>BÓIA CAIXA D’ ÁGUA  3/4”  DE PVC P/ VASO ACOPLADO</t>
-  </si>
-  <si>
-    <t>MANGUEIRA DE JARDIM MICROPERFURADA LASER ROLO DE 100 MM</t>
-  </si>
-  <si>
-    <t>MANGUEIRA DE JARDIM  CRISTAL ROLO DE 100 MM</t>
-  </si>
-  <si>
-    <t>TAPA FURO CANO DE ÁGUA C/ 5 UNIDADES (TIPO PARAFUSO)</t>
-  </si>
-  <si>
     <t>TORNEIRA METÁLICA CROMADA 1/2 "</t>
   </si>
   <si>
@@ -1132,64 +802,22 @@
     <t>Torneira Material Corpo: Aço Inoxidável Cromado , Tipo: Pia , Diâmetro: 1/2 POL, Caracteristicas Adicionais: Bica Móvel Para Bancada Giratória,Tipo Pescoço De , Aplicação: Bancada (Docol ou Equivalente)</t>
   </si>
   <si>
-    <t>Torneira Material Corpo: Metal Cromado , Diâmetro: 1/2 POL, Acabamento Superficial: Cromado , Caracteristicas Adicionais: De Parede/Bica Móvel Curta/Bico Arrejador , Aplicação: Cozinha (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Torneira Material Corpo: Metal Cromado , Tipo: Parede , Diâmetro: 3/4 POL, Caracteristicas Adicionais: Com Bica Móvel Longa E Bico Arejador , Aplicação: Cozinha (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braço Chuveiro Material: Alumínio , Acabamento: Cromado , Comprimento: 30 CM, Bitola: 1/2" PO </t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 1/2 POL, Material: Metal , Acabamento Superficial: Cromado (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 1 POL, Material: Metal , Acabamento Superficial: Cromado (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 1 1/2 POL, Material: Metal , Acabamento Superficial: Cromado (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 1 1/4 POL, Material: Metal , Acabamento Superficial: Cromado (Docol ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Conexão Hidráulica Material: Pvc - Cloreto De Polivinila , Tipo: Válvula Retenção , Tipo Fixação: Soldável , Características Adicionais: Horizontal , Bitola: 1" (Tigre ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Conexão Hidráulica Material: Pvc - Cloreto De Polivinila , Tipo: Válvula Retenção , Tipo Fixação: Soldável , Características Adicionais: Horizontal , Bitola: 25 Mm (Tigre ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Conexão Hidráulica Material: Pvc - Cloreto De Polivinila , Tipo: Válvula Retenção , Tipo Fixação: Soldável , Aplicação: Instalação Sanitária , Bitola: 100 Mm (Tigre ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Tanque Lavar Roupa Material: Louça , Cor: Branca , Comprimento: 535 MM, Largura: 485 MM, Altura: 310 MM, Características Adicionais: Com Coluna (DECA ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Vaso Sanitário Material: Louça , Cor: Branca , Tipo: Convencional (ICASA ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Vaso Sanitário Material: Louça , Cor: Branca , Características Adicionais: Acoplado Com Descarga , Tipo: Convencional (ICASA ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Conjunto Obturador Caixa Descarga Componentes: Botão De Acionamento, Torres: De Saída E De Entrada , Outros Componentes: Bolsa De Vedação E Conjunto De Fixação , Aplicação: Caixa De Descarga Acoplada Padrao Universal (DECA ou Equivalente)</t>
-  </si>
-  <si>
-    <t>Botão Acionamento Caixa Descarga Material: Pvc Cromado , Bitola: 69 MM, Características Adicionais: Fixação Rosqueável, Acionamento Superior , Aplicação: Caixa De Descarga</t>
-  </si>
-  <si>
-    <t>Ducha Higiênica Material: Aço Inox , Comprimento: 1,5 M, Diâmetro: 1/2 POL, Acabamento: Cromado (Docol ou equivalente)</t>
-  </si>
-  <si>
-    <t>Registro Gaveta Tipo: Manual , Bitola: 1/2 POL, Material: Bronze Fundido , Acabamento Superficial: Cromado , Aplicação: Instalação Hidráulica (Docol ou equivalente)</t>
-  </si>
-  <si>
-    <t>OBTURADOR  UNIVERSAL P/  CAIXA D`ÁGUA ACOPLADA</t>
+    <t xml:space="preserve">
+R$  14,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+R$ 28,9  
+  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1254,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1267,6 +895,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,8 +1217,8 @@
     <col min="1" max="2" width="10.7265625" style="3" customWidth="1"/>
     <col min="3" max="3" width="55.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="181.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" style="3" customWidth="1"/>
     <col min="8" max="25" width="10.7265625" customWidth="1"/>
   </cols>
@@ -1623,16 +1254,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3">
         <v>31</v>
@@ -1646,16 +1277,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3">
         <v>55</v>
@@ -1669,16 +1300,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3">
         <v>14.94</v>
@@ -1687,47 +1318,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14.3</v>
+        <v>174</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="3">
-        <v>28.9</v>
+        <v>174</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1738,16 +1369,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="F7" s="3">
         <v>44</v>
@@ -1761,16 +1392,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F8" s="3">
         <v>11.25</v>
@@ -1784,16 +1415,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F9" s="3">
         <v>10.130000000000001</v>
@@ -1807,16 +1438,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F10" s="3">
         <v>104.7</v>
@@ -1830,16 +1461,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F11" s="3">
         <v>3.5</v>
@@ -1853,16 +1484,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F12" s="3">
         <v>3.1</v>
@@ -1876,16 +1507,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>263</v>
+        <v>184</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F13" s="3">
         <v>3.6</v>
@@ -1899,16 +1530,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F14" s="3">
         <v>3.73</v>
@@ -1922,16 +1553,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F15" s="3">
         <v>3.36</v>
@@ -1945,16 +1576,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F16" s="3">
         <v>4.51</v>
@@ -1968,16 +1599,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F17" s="3">
         <v>12.45</v>
@@ -1991,16 +1622,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F18" s="3">
         <v>11.68</v>
@@ -2014,16 +1645,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F19" s="3">
         <v>5.64</v>
@@ -2037,16 +1668,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F20" s="3">
         <v>7</v>
@@ -2060,16 +1691,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F21" s="3">
         <v>10.84</v>
@@ -2083,16 +1714,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F22" s="3">
         <v>3.86</v>
@@ -2106,16 +1737,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F23" s="3">
         <v>0.6</v>
@@ -2129,16 +1760,16 @@
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F24" s="3">
         <v>1.87</v>
@@ -2152,16 +1783,16 @@
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F25" s="3">
         <v>5</v>
@@ -2175,16 +1806,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F26" s="3">
         <v>374.5</v>
@@ -2198,16 +1829,16 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3">
         <v>2914.5</v>
@@ -2221,16 +1852,16 @@
         <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F28" s="3">
         <v>0.8</v>
@@ -2244,16 +1875,16 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F29" s="3">
         <v>2.93</v>
@@ -2267,16 +1898,16 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3">
         <v>5.77</v>
@@ -2290,16 +1921,16 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F31" s="3">
         <v>14.43</v>
@@ -2313,16 +1944,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F32" s="3">
         <v>9.09</v>
@@ -2336,16 +1967,16 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F33" s="3">
         <v>2.37</v>
@@ -2359,16 +1990,16 @@
         <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F34" s="3">
         <v>6.73</v>
@@ -2382,16 +2013,16 @@
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F35" s="3">
         <v>10.220000000000001</v>
@@ -2405,16 +2036,16 @@
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F36" s="3">
         <v>7.63</v>
@@ -2428,16 +2059,16 @@
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F37" s="3">
         <v>3.65</v>
@@ -2451,16 +2082,16 @@
         <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F38" s="3">
         <v>0.67</v>
@@ -2474,16 +2105,16 @@
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F39" s="3">
         <v>2.2200000000000002</v>
@@ -2497,16 +2128,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F40" s="3">
         <v>0.88</v>
@@ -2520,16 +2151,16 @@
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F41" s="3">
         <v>0.4</v>
@@ -2543,16 +2174,16 @@
         <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3">
         <v>0.52</v>
@@ -2566,16 +2197,16 @@
         <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F43" s="3">
         <v>1.52</v>
@@ -2589,16 +2220,16 @@
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F44" s="3">
         <v>3</v>
@@ -2612,16 +2243,16 @@
         <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F45" s="3">
         <v>3.93</v>
@@ -2635,16 +2266,16 @@
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F46" s="3">
         <v>3.17</v>
@@ -2658,16 +2289,16 @@
         <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F47" s="3">
         <v>4.46</v>
@@ -2681,16 +2312,16 @@
         <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F48" s="3">
         <v>4.8899999999999997</v>
@@ -2704,16 +2335,16 @@
         <v>55</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F49" s="3">
         <v>5.82</v>
@@ -2727,16 +2358,16 @@
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F50" s="3">
         <v>0.87</v>
@@ -2750,16 +2381,16 @@
         <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F51" s="3">
         <v>1.1000000000000001</v>
@@ -2773,16 +2404,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F52" s="3">
         <v>0.45</v>
@@ -2796,16 +2427,16 @@
         <v>59</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F53" s="3">
         <v>0.7</v>
@@ -2819,16 +2450,16 @@
         <v>60</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F54" s="3">
         <v>1.18</v>
@@ -2842,16 +2473,16 @@
         <v>61</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F55" s="3">
         <v>2.04</v>
@@ -2865,16 +2496,16 @@
         <v>62</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F56" s="3">
         <v>4.16</v>
@@ -2888,16 +2519,16 @@
         <v>63</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F57" s="3">
         <v>4.97</v>
@@ -2911,16 +2542,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F58" s="3">
         <v>15.42</v>
@@ -2934,16 +2565,16 @@
         <v>65</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="F59" s="3">
         <v>1.22</v>
@@ -2957,16 +2588,16 @@
         <v>66</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="F60" s="3">
         <v>4.33</v>
@@ -2980,16 +2611,16 @@
         <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F61" s="3">
         <v>103.83</v>
@@ -3003,16 +2634,16 @@
         <v>68</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F62" s="3">
         <v>35.630000000000003</v>
@@ -3026,757 +2657,21 @@
         <v>69</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="F63" s="3">
         <v>41.13</v>
       </c>
       <c r="G63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" s="3">
-        <v>36.590000000000003</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F65" s="3">
-        <v>35.1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6.17</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68" s="3">
-        <v>11</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="3">
-        <v>10.08</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F70" s="3">
-        <v>45.59</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="3">
-        <v>78.510000000000005</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="3">
-        <v>106.17</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="3">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="3">
-        <v>45.2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="3">
-        <v>52.44</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="3">
-        <v>27.25</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="3">
-        <v>119.9</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" s="3">
-        <v>511.2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="3">
-        <v>172.28</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F80" s="3">
-        <v>311.25</v>
-      </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F81" s="3">
-        <v>71.37</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F82" s="3">
-        <v>75</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F83" s="3">
-        <v>80.5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F84" s="3">
-        <v>50.25</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="3">
-        <v>20</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F86" s="3">
-        <v>6.79</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F87" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F88" s="3">
-        <v>48.65</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F89" s="3">
-        <v>26</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F90" s="3">
-        <v>8.48</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F91" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F92" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F93" s="3">
-        <v>130</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F94" s="3">
-        <v>138.44999999999999</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F95" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="G95" s="3">
         <v>1</v>
       </c>
     </row>
